--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O310"/>
+  <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15588,6 +15588,363 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>337.4928571428572</v>
+      </c>
+      <c r="C311" t="n">
+        <v>336.46</v>
+      </c>
+      <c r="D311" t="n">
+        <v>348.6536363636364</v>
+      </c>
+      <c r="E311" t="n">
+        <v>345.73</v>
+      </c>
+      <c r="F311" t="n">
+        <v>351.7669230769231</v>
+      </c>
+      <c r="G311" t="n">
+        <v>351.4527586206897</v>
+      </c>
+      <c r="H311" t="n">
+        <v>358.95</v>
+      </c>
+      <c r="I311" t="n">
+        <v>361.12</v>
+      </c>
+      <c r="J311" t="n">
+        <v>353.6622222222222</v>
+      </c>
+      <c r="K311" t="n">
+        <v>351.3</v>
+      </c>
+      <c r="L311" t="n">
+        <v>351.3569230769231</v>
+      </c>
+      <c r="M311" t="n">
+        <v>355.7469230769231</v>
+      </c>
+      <c r="N311" t="n">
+        <v>350.3157142857143</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>349.3214285714286</v>
+      </c>
+      <c r="C312" t="n">
+        <v>329.99</v>
+      </c>
+      <c r="D312" t="n">
+        <v>352.6918181818182</v>
+      </c>
+      <c r="E312" t="n">
+        <v>343.96</v>
+      </c>
+      <c r="F312" t="n">
+        <v>347.8530769230769</v>
+      </c>
+      <c r="G312" t="n">
+        <v>349.7068965517241</v>
+      </c>
+      <c r="H312" t="n">
+        <v>356.88</v>
+      </c>
+      <c r="I312" t="n">
+        <v>352.69</v>
+      </c>
+      <c r="J312" t="n">
+        <v>343.0866666666667</v>
+      </c>
+      <c r="K312" t="n">
+        <v>342.32</v>
+      </c>
+      <c r="L312" t="n">
+        <v>340.4830769230769</v>
+      </c>
+      <c r="M312" t="n">
+        <v>345.7630769230769</v>
+      </c>
+      <c r="N312" t="n">
+        <v>334.5128571428572</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>335.7452380952381</v>
+      </c>
+      <c r="C313" t="n">
+        <v>334.7166666666667</v>
+      </c>
+      <c r="D313" t="n">
+        <v>344.5636363636364</v>
+      </c>
+      <c r="E313" t="n">
+        <v>342.1933333333333</v>
+      </c>
+      <c r="F313" t="n">
+        <v>346.9807692307692</v>
+      </c>
+      <c r="G313" t="n">
+        <v>350.2341379310345</v>
+      </c>
+      <c r="H313" t="n">
+        <v>358.1966666666667</v>
+      </c>
+      <c r="I313" t="n">
+        <v>359.2266666666667</v>
+      </c>
+      <c r="J313" t="n">
+        <v>352.2174074074074</v>
+      </c>
+      <c r="K313" t="n">
+        <v>353.45</v>
+      </c>
+      <c r="L313" t="n">
+        <v>352.4107692307692</v>
+      </c>
+      <c r="M313" t="n">
+        <v>356.6407692307693</v>
+      </c>
+      <c r="N313" t="n">
+        <v>348.7571428571429</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>345.3733333333333</v>
+      </c>
+      <c r="C314" t="n">
+        <v>341.8933333333334</v>
+      </c>
+      <c r="D314" t="n">
+        <v>349.3809090909091</v>
+      </c>
+      <c r="E314" t="n">
+        <v>351.6066666666667</v>
+      </c>
+      <c r="F314" t="n">
+        <v>354.4876923076923</v>
+      </c>
+      <c r="G314" t="n">
+        <v>356.8720689655173</v>
+      </c>
+      <c r="H314" t="n">
+        <v>361.1433333333334</v>
+      </c>
+      <c r="I314" t="n">
+        <v>359.3933333333334</v>
+      </c>
+      <c r="J314" t="n">
+        <v>355.4181481481481</v>
+      </c>
+      <c r="K314" t="n">
+        <v>354.36</v>
+      </c>
+      <c r="L314" t="n">
+        <v>355.2676923076923</v>
+      </c>
+      <c r="M314" t="n">
+        <v>352.5376923076923</v>
+      </c>
+      <c r="N314" t="n">
+        <v>351.02</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>347.6609523809524</v>
+      </c>
+      <c r="C315" t="n">
+        <v>342.3666666666667</v>
+      </c>
+      <c r="D315" t="n">
+        <v>357.7718181818182</v>
+      </c>
+      <c r="E315" t="n">
+        <v>359.8733333333333</v>
+      </c>
+      <c r="F315" t="n">
+        <v>366.3584615384616</v>
+      </c>
+      <c r="G315" t="n">
+        <v>368.8424137931034</v>
+      </c>
+      <c r="H315" t="n">
+        <v>369.3266666666667</v>
+      </c>
+      <c r="I315" t="n">
+        <v>370.6266666666667</v>
+      </c>
+      <c r="J315" t="n">
+        <v>366.3674074074074</v>
+      </c>
+      <c r="K315" t="n">
+        <v>363.98</v>
+      </c>
+      <c r="L315" t="n">
+        <v>366.8384615384616</v>
+      </c>
+      <c r="M315" t="n">
+        <v>374.2584615384616</v>
+      </c>
+      <c r="N315" t="n">
+        <v>373.4585714285714</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>337.3785714285714</v>
+      </c>
+      <c r="C316" t="n">
+        <v>332.4299999999999</v>
+      </c>
+      <c r="D316" t="n">
+        <v>347.8127272727273</v>
+      </c>
+      <c r="E316" t="n">
+        <v>347</v>
+      </c>
+      <c r="F316" t="n">
+        <v>347.1292307692308</v>
+      </c>
+      <c r="G316" t="n">
+        <v>351.0327586206897</v>
+      </c>
+      <c r="H316" t="n">
+        <v>361.07</v>
+      </c>
+      <c r="I316" t="n">
+        <v>355.21</v>
+      </c>
+      <c r="J316" t="n">
+        <v>351.7166666666667</v>
+      </c>
+      <c r="K316" t="n">
+        <v>347.02</v>
+      </c>
+      <c r="L316" t="n">
+        <v>353.6792307692308</v>
+      </c>
+      <c r="M316" t="n">
+        <v>359.8992307692308</v>
+      </c>
+      <c r="N316" t="n">
+        <v>349.0971428571429</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>336.5738095238096</v>
+      </c>
+      <c r="C317" t="n">
+        <v>332.9566666666666</v>
+      </c>
+      <c r="D317" t="n">
+        <v>345.6272727272727</v>
+      </c>
+      <c r="E317" t="n">
+        <v>342.5833333333333</v>
+      </c>
+      <c r="F317" t="n">
+        <v>346.4046153846153</v>
+      </c>
+      <c r="G317" t="n">
+        <v>351.1686206896552</v>
+      </c>
+      <c r="H317" t="n">
+        <v>358.6766666666667</v>
+      </c>
+      <c r="I317" t="n">
+        <v>360.2066666666666</v>
+      </c>
+      <c r="J317" t="n">
+        <v>353.2485185185185</v>
+      </c>
+      <c r="K317" t="n">
+        <v>354.26</v>
+      </c>
+      <c r="L317" t="n">
+        <v>356.5146153846153</v>
+      </c>
+      <c r="M317" t="n">
+        <v>362.2246153846153</v>
+      </c>
+      <c r="N317" t="n">
+        <v>353.1242857142857</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15599,7 +15956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18797,6 +19154,76 @@
       </c>
       <c r="B319" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -18965,28 +19392,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07672888385586213</v>
+        <v>0.1155607612417336</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002473238365454766</v>
+        <v>0.00579361448012683</v>
       </c>
       <c r="M2" t="n">
-        <v>8.711099627786197</v>
+        <v>8.651996559953878</v>
       </c>
       <c r="N2" t="n">
-        <v>118.3647790457257</v>
+        <v>117.546193510189</v>
       </c>
       <c r="O2" t="n">
-        <v>10.87955785157309</v>
+        <v>10.8418722326999</v>
       </c>
       <c r="P2" t="n">
-        <v>331.6271329558637</v>
+        <v>331.2419414892095</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19042,28 +19469,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09134384449302761</v>
+        <v>0.1143846494624423</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004805506466335818</v>
+        <v>0.007844484257264694</v>
       </c>
       <c r="M3" t="n">
-        <v>6.997678089278775</v>
+        <v>6.917393363933652</v>
       </c>
       <c r="N3" t="n">
-        <v>85.44836171155974</v>
+        <v>84.2379082889049</v>
       </c>
       <c r="O3" t="n">
-        <v>9.24382830387712</v>
+        <v>9.178121174233041</v>
       </c>
       <c r="P3" t="n">
-        <v>329.0190964835077</v>
+        <v>328.7886751664169</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19119,28 +19546,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1752043021830892</v>
+        <v>0.1985131934528083</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01840458915041299</v>
+        <v>0.02447758938940392</v>
       </c>
       <c r="M4" t="n">
-        <v>6.783085654695499</v>
+        <v>6.719534104331356</v>
       </c>
       <c r="N4" t="n">
-        <v>81.44549643639257</v>
+        <v>80.36934869385411</v>
       </c>
       <c r="O4" t="n">
-        <v>9.02471586457948</v>
+        <v>8.964895353201515</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3727895150701</v>
+        <v>340.1409999589121</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19196,28 +19623,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2012154601251243</v>
+        <v>0.2311710887942016</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02439188375013868</v>
+        <v>0.03302091723890188</v>
       </c>
       <c r="M5" t="n">
-        <v>6.825064486268325</v>
+        <v>6.784011111978212</v>
       </c>
       <c r="N5" t="n">
-        <v>80.79077497952203</v>
+        <v>80.42972378257919</v>
       </c>
       <c r="O5" t="n">
-        <v>8.988368872021331</v>
+        <v>8.968262026868929</v>
       </c>
       <c r="P5" t="n">
-        <v>336.5717100638425</v>
+        <v>336.2760886710636</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19273,28 +19700,28 @@
         <v>0.1518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05101243381482674</v>
+        <v>0.07495991996884366</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001607596129484024</v>
+        <v>0.003579045628834043</v>
       </c>
       <c r="M6" t="n">
-        <v>7.036392299064932</v>
+        <v>6.984682112961907</v>
       </c>
       <c r="N6" t="n">
-        <v>80.96876168178244</v>
+        <v>80.61721850763158</v>
       </c>
       <c r="O6" t="n">
-        <v>8.998264370520708</v>
+        <v>8.978709178252272</v>
       </c>
       <c r="P6" t="n">
-        <v>345.3613189959228</v>
+        <v>345.1249770585507</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19350,28 +19777,28 @@
         <v>0.1765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1017622253973123</v>
+        <v>0.1141442521836605</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007171793379810221</v>
+        <v>0.009334191968648597</v>
       </c>
       <c r="M7" t="n">
-        <v>6.589393360651006</v>
+        <v>6.525403378680008</v>
       </c>
       <c r="N7" t="n">
-        <v>73.41947982273939</v>
+        <v>72.78105811486238</v>
       </c>
       <c r="O7" t="n">
-        <v>8.568516780793475</v>
+        <v>8.531181519277524</v>
       </c>
       <c r="P7" t="n">
-        <v>349.0188800433857</v>
+        <v>348.8981600743494</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19427,28 +19854,28 @@
         <v>0.1785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09486039494395318</v>
+        <v>0.1301419716619919</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005026092019887463</v>
+        <v>0.009716160879560509</v>
       </c>
       <c r="M8" t="n">
-        <v>7.544524464171801</v>
+        <v>7.535871212177706</v>
       </c>
       <c r="N8" t="n">
-        <v>91.7060206600906</v>
+        <v>91.17553259137981</v>
       </c>
       <c r="O8" t="n">
-        <v>9.576326052306834</v>
+        <v>9.548587989403449</v>
       </c>
       <c r="P8" t="n">
-        <v>350.5502825164486</v>
+        <v>350.2054301404707</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19504,28 +19931,28 @@
         <v>0.1974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1018319348309516</v>
+        <v>0.1379535866944566</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K9" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004801460223975429</v>
+        <v>0.009026856446665787</v>
       </c>
       <c r="M9" t="n">
-        <v>8.238145967262325</v>
+        <v>8.237159195499624</v>
       </c>
       <c r="N9" t="n">
-        <v>111.2164390907326</v>
+        <v>110.7008991490716</v>
       </c>
       <c r="O9" t="n">
-        <v>10.54592049518356</v>
+        <v>10.52144947947153</v>
       </c>
       <c r="P9" t="n">
-        <v>349.082139363897</v>
+        <v>348.7274272376184</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19581,28 +20008,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1411844845281371</v>
+        <v>0.1864051085605211</v>
       </c>
       <c r="J10" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K10" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009017293629498879</v>
+        <v>0.01591743953051472</v>
       </c>
       <c r="M10" t="n">
-        <v>8.267952663099976</v>
+        <v>8.298070578130099</v>
       </c>
       <c r="N10" t="n">
-        <v>112.5379135719038</v>
+        <v>113.0363063371914</v>
       </c>
       <c r="O10" t="n">
-        <v>10.6083888301619</v>
+        <v>10.63185338203981</v>
       </c>
       <c r="P10" t="n">
-        <v>340.0992025859092</v>
+        <v>339.6524439010357</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19658,28 +20085,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09942474502707836</v>
+        <v>0.1632670371793088</v>
       </c>
       <c r="J11" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K11" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003900840080381274</v>
+        <v>0.01053072010358491</v>
       </c>
       <c r="M11" t="n">
-        <v>9.002228421435312</v>
+        <v>9.113258714514958</v>
       </c>
       <c r="N11" t="n">
-        <v>129.1888529455715</v>
+        <v>131.3520270361369</v>
       </c>
       <c r="O11" t="n">
-        <v>11.36612743838338</v>
+        <v>11.46089119729076</v>
       </c>
       <c r="P11" t="n">
-        <v>335.9225029675451</v>
+        <v>335.2908299432837</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -19735,28 +20162,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1692484543511391</v>
+        <v>0.2405503197138989</v>
       </c>
       <c r="J12" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009386226373405804</v>
+        <v>0.01890223123656953</v>
       </c>
       <c r="M12" t="n">
-        <v>9.605400741815492</v>
+        <v>9.743575689578654</v>
       </c>
       <c r="N12" t="n">
-        <v>151.8934780047838</v>
+        <v>154.7301621609548</v>
       </c>
       <c r="O12" t="n">
-        <v>12.32450721143786</v>
+        <v>12.43905792899747</v>
       </c>
       <c r="P12" t="n">
-        <v>334.1529438101833</v>
+        <v>333.440182023437</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -19812,28 +20239,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2266354944023037</v>
+        <v>0.2963516829133917</v>
       </c>
       <c r="J13" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K13" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01904810594984263</v>
+        <v>0.0321713183409289</v>
       </c>
       <c r="M13" t="n">
-        <v>9.096287986718352</v>
+        <v>9.248235392516897</v>
       </c>
       <c r="N13" t="n">
-        <v>134.2845737016313</v>
+        <v>137.6246475043739</v>
       </c>
       <c r="O13" t="n">
-        <v>11.5881220955611</v>
+        <v>11.73135318300382</v>
       </c>
       <c r="P13" t="n">
-        <v>337.5058554650426</v>
+        <v>336.8163248115406</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -19889,28 +20316,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2621743093620365</v>
+        <v>0.3132494648340992</v>
       </c>
       <c r="J14" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K14" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02566645466046968</v>
+        <v>0.03661055005816016</v>
       </c>
       <c r="M14" t="n">
-        <v>9.003670177307468</v>
+        <v>9.058367688160335</v>
       </c>
       <c r="N14" t="n">
-        <v>132.1983876342321</v>
+        <v>134.3094620598892</v>
       </c>
       <c r="O14" t="n">
-        <v>11.49775576511487</v>
+        <v>11.58919591947125</v>
       </c>
       <c r="P14" t="n">
-        <v>334.1305940148227</v>
+        <v>333.6249602337041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -19947,7 +20374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O310"/>
+  <dimension ref="A1:O317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42457,6 +42884,545 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-36.693622521611694,175.60418745072653</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-36.69434333648837,175.60430421989003</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-36.69503863287567,175.60462014793976</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-36.695719349121994,175.60497002990607</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-36.69633809247461,175.60544285418288</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-36.69696356566659,175.6059002559371</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-36.69752301282009,175.6064747568269</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-36.69807708715184,175.60704244664896</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-36.69862207626743,175.60763705110162</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-36.69913362495958,175.60827248058226</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-36.69961731970804,175.6089424367226</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-36.700043997806425,175.60967671125624</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-36.7004081430689,175.61046107338365</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-36.69360560910648,175.60431809693304</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-36.694354273786054,175.60423312653302</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-36.69502677255166,175.60466285474766</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-36.695726551387835,175.60495236370326</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-36.69635566903404,175.60540489744707</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-36.69697221472144,175.60588394281478</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-36.69753423130548,175.60645625813876</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-36.6981290478918,175.60697366632957</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-36.698692332796156,175.60755713763493</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-36.69919396996474,175.60820556848245</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-36.69969284047355,175.6088649535842</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-36.70012058346148,175.60961814137917</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-36.70053697611546,175.61038584104693</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-36.69362502034746,175.6041681483225</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-36.69434628353353,175.60428506387694</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-36.69505064537694,175.60457689310138</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-36.69573374008759,175.60493473076673</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-36.69635958644963,175.60539643774763</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-36.6969696027515,175.60588886929435</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-36.69752709555422,175.60646802461576</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-36.6980887572619,175.60702699896177</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-36.698631674600435,175.60762613346523</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-36.69911917709695,175.60828850072434</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-36.69961000055956,175.60894994604536</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-36.700037141149735,175.60968195496724</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-36.70042084934927,175.61045365353547</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-36.69361125411336,175.60427449035026</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-36.69433415160542,175.60436392217642</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-36.69503649684363,175.60462783939653</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-36.6956954364964,175.60502868433645</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-36.696325873857226,175.60546924037024</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-36.69693671822161,175.6059508932884</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-36.69751112591959,175.60649435768536</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-36.69808772996356,175.60702835879357</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-36.69861041112989,175.6076503196225</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-36.699113061954506,175.60829528134082</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-36.69959015871987,175.6089703034286</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-36.700068615680564,175.60965788443087</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-36.70040240136737,175.61046442625656</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-36.69360798326581,175.6042997570287</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-36.69433335144859,175.60436912323377</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-36.695011852339064,175.60471657954605</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-36.695661798723364,175.6051111930573</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-36.69627256372639,175.60558436371971</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-36.6968774166605,175.60606274255088</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-36.6974667758311,175.60656748849374</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-36.69801849002205,175.60712001137364</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-36.69853767191776,175.60773305677813</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-36.699048416141515,175.60836696207812</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-36.699509797634406,175.6090527523689</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-36.69990199652343,175.60978530823553</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-36.70021947048204,175.61057124867204</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-36.693622685016855,175.60418618844403</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-36.69435014906046,175.60425993763167</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-36.69504110266213,175.60461125469232</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-36.695714181392994,175.60498270565398</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-36.69635891972902,175.60539787753783</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-36.696965646359814,175.60589633150863</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-36.697511523354,175.60649370233762</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-36.698113515147746,175.60699422700418</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-36.69863500116936,175.6076223496542</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-36.69916238628032,175.6082405893049</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-36.699601190868606,175.6089589846371</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-36.70001214562505,175.60970107058765</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-36.70041807749347,175.61045527216433</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-36.69362383566113,175.60417729987117</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-36.694349258750044,175.6042657247263</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-36.69504752143386,175.60458814186046</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-36.69573215314843,175.60493862332095</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-36.696362173878114,175.6053908501679</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-36.69696497329486,175.60589760098716</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-36.697524494166146,175.6064723141663</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-36.698082716747415,175.60703499477225</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-36.69862482462383,175.60763392498043</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-36.69911373394818,175.60829453621818</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-36.699581498616,175.60897918854064</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-36.699994307693494,175.6097147123462</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-36.70038524614104,175.61047444406663</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -19237,7 +19237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19328,35 +19328,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19415,27 +19420,28 @@
       <c r="P2" t="n">
         <v>331.2419414892095</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.60045982480335 -36.694105009750736, 175.61063327704895 -36.69278791325585)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.6004598248034</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.69410500975074</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.6106332770489</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.69278791325585</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.6055465509261</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.69344646150329</v>
       </c>
     </row>
@@ -19492,27 +19498,28 @@
       <c r="P3" t="n">
         <v>328.7886751664169</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.6006071155128 -36.694912054438355, 175.610728044838 -36.69335488192552)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.6006071155128</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.69491205443835</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.610728044838</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.69335488192552</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.6056675801754</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.69413346818194</v>
       </c>
     </row>
@@ -19569,27 +19576,28 @@
       <c r="P4" t="n">
         <v>340.1409999589121</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.60093282104526 -36.696062588535085, 175.61067282870903 -36.69335752556432)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.6009328210453</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.69606258853509</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.610672828709</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.69335752556432</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.6058028248771</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.6947100570497</v>
       </c>
     </row>
@@ -19646,27 +19654,28 @@
       <c r="P5" t="n">
         <v>336.2760886710636</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.6015192665434 -36.697126103533385, 175.61071004405395 -36.69337901868307)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.6015192665434</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.69712610353339</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.6107100440539</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.69337901868307</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.6061146552987</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.69525256110823</v>
       </c>
     </row>
@@ -19723,27 +19732,28 @@
       <c r="P6" t="n">
         <v>345.1249770585507</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.6020313244834 -36.69791778481078, 175.6109610302223 -36.69378259047341)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.6020313244834</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.69791778481078</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.6109610302223</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.69378259047341</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.6064961773529</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.69585018764209</v>
       </c>
     </row>
@@ -19800,27 +19810,28 @@
       <c r="P7" t="n">
         <v>348.8981600743494</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.6026162488657 -36.69870463109745, 175.61121910314208 -36.694143348036604)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.6026162488657</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.69870463109745</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.6112191031421</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.6941433480366</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.6069176760039</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.69642398956702</v>
       </c>
     </row>
@@ -19877,27 +19888,28 @@
       <c r="P8" t="n">
         <v>350.2054301404707</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.60326689546125 -36.699468323095644, 175.61149398252851 -36.694478893856825)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.6032668954612</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.69946832309564</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.6114939825285</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.69447889385683</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.6073804389949</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.69697360847623</v>
       </c>
     </row>
@@ -19954,27 +19966,28 @@
       <c r="P9" t="n">
         <v>348.7274272376184</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.60409598740065 -36.700302921842294, 175.61160600481983 -36.69462926556681)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.6040959874007</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.70030292184229</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.6116060048198</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.69462926556681</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.6078509961102</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.69746609370455</v>
       </c>
     </row>
@@ -20031,27 +20044,28 @@
       <c r="P10" t="n">
         <v>339.6524439010357</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.60496454789498 -36.70097153210107, 175.6119191064635 -36.69485721725586)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.604964547895</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.70097153210107</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.6119191064635</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.69485721725586</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.6084418271792</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.69791437467846</v>
       </c>
     </row>
@@ -20108,27 +20122,28 @@
       <c r="P11" t="n">
         <v>335.2908299432837</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.60565478368608 -36.701494312288304, 175.612512376788 -36.69530959276386)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.6056547836861</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.7014943122883</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.612512376788</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.69530959276386</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.609083580237</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.69840195252608</v>
       </c>
     </row>
@@ -20185,27 +20200,28 @@
       <c r="P12" t="n">
         <v>333.440182023437</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.60643871689058 -36.70205753211668, 175.61299626267572 -36.69566589511015)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.6064387168906</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.70205753211668</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.6129962626757</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.69566589511015</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.6097174897832</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.69886171361342</v>
       </c>
     </row>
@@ -20262,27 +20278,28 @@
       <c r="P13" t="n">
         <v>336.8163248115406</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.6075896646076 -36.70277290166559, 175.6129873382681 -36.69571475769512)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.6075896646076</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.70277290166559</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.6129873382681</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.69571475769512</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.6102885014379</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.69924382968036</v>
       </c>
     </row>
@@ -20339,27 +20356,28 @@
       <c r="P14" t="n">
         <v>333.6249602337041</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.60879327597743 -36.703264088131114, 175.6131728853004 -36.69576394655648)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.6087932759774</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.70326408813111</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.6131728853004</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.69576394655648</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.6109830806389</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.6995140173438</v>
       </c>
     </row>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15945,6 +15945,261 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>336.5452380952381</v>
+      </c>
+      <c r="C318" t="n">
+        <v>335.7666666666667</v>
+      </c>
+      <c r="D318" t="n">
+        <v>345.7727272727273</v>
+      </c>
+      <c r="E318" t="n">
+        <v>346.0933333333333</v>
+      </c>
+      <c r="F318" t="n">
+        <v>358.3161538461539</v>
+      </c>
+      <c r="G318" t="n">
+        <v>356.4924137931034</v>
+      </c>
+      <c r="H318" t="n">
+        <v>359.2766666666666</v>
+      </c>
+      <c r="I318" t="n">
+        <v>357.5366666666666</v>
+      </c>
+      <c r="J318" t="n">
+        <v>350.542962962963</v>
+      </c>
+      <c r="K318" t="n">
+        <v>343.61</v>
+      </c>
+      <c r="L318" t="n">
+        <v>348.0261538461539</v>
+      </c>
+      <c r="M318" t="n">
+        <v>349.4761538461539</v>
+      </c>
+      <c r="N318" t="n">
+        <v>350.8671428571428</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>348.6847619047619</v>
+      </c>
+      <c r="C319" t="n">
+        <v>337.7733333333333</v>
+      </c>
+      <c r="D319" t="n">
+        <v>354.2663636363636</v>
+      </c>
+      <c r="E319" t="n">
+        <v>349.5066666666667</v>
+      </c>
+      <c r="F319" t="n">
+        <v>363.7192307692308</v>
+      </c>
+      <c r="G319" t="n">
+        <v>370.2858620689655</v>
+      </c>
+      <c r="H319" t="n">
+        <v>365.8033333333333</v>
+      </c>
+      <c r="I319" t="n">
+        <v>363.7533333333333</v>
+      </c>
+      <c r="J319" t="n">
+        <v>357.9025925925926</v>
+      </c>
+      <c r="K319" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="L319" t="n">
+        <v>356.3792307692308</v>
+      </c>
+      <c r="M319" t="n">
+        <v>350.3692307692308</v>
+      </c>
+      <c r="N319" t="n">
+        <v>345.0028571428571</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>342.12</v>
+      </c>
+      <c r="C320" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="D320" t="n">
+        <v>361.0827272727273</v>
+      </c>
+      <c r="E320" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="F320" t="n">
+        <v>361.6838461538461</v>
+      </c>
+      <c r="G320" t="n">
+        <v>366.4251724137931</v>
+      </c>
+      <c r="H320" t="n">
+        <v>374.78</v>
+      </c>
+      <c r="I320" t="n">
+        <v>366.83</v>
+      </c>
+      <c r="J320" t="n">
+        <v>355.6633333333333</v>
+      </c>
+      <c r="K320" t="n">
+        <v>367.33</v>
+      </c>
+      <c r="L320" t="n">
+        <v>344.1738461538461</v>
+      </c>
+      <c r="M320" t="n">
+        <v>348.4838461538461</v>
+      </c>
+      <c r="N320" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>342.0371428571428</v>
+      </c>
+      <c r="C321" t="n">
+        <v>328.97</v>
+      </c>
+      <c r="D321" t="n">
+        <v>346.9372727272727</v>
+      </c>
+      <c r="E321" t="n">
+        <v>341.64</v>
+      </c>
+      <c r="F321" t="n">
+        <v>348.5376923076923</v>
+      </c>
+      <c r="G321" t="n">
+        <v>355.2989655172414</v>
+      </c>
+      <c r="H321" t="n">
+        <v>358.49</v>
+      </c>
+      <c r="I321" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="J321" t="n">
+        <v>348.2222222222222</v>
+      </c>
+      <c r="K321" t="n">
+        <v>345.78</v>
+      </c>
+      <c r="L321" t="n">
+        <v>344.8976923076923</v>
+      </c>
+      <c r="M321" t="n">
+        <v>342.6876923076923</v>
+      </c>
+      <c r="N321" t="n">
+        <v>341.6142857142857</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>320.8938095238095</v>
+      </c>
+      <c r="C322" t="n">
+        <v>327.6866666666667</v>
+      </c>
+      <c r="D322" t="n">
+        <v>339.0854545454546</v>
+      </c>
+      <c r="E322" t="n">
+        <v>337.0933333333333</v>
+      </c>
+      <c r="F322" t="n">
+        <v>344.1753846153846</v>
+      </c>
+      <c r="G322" t="n">
+        <v>349.5351724137931</v>
+      </c>
+      <c r="H322" t="n">
+        <v>350.1666666666667</v>
+      </c>
+      <c r="I322" t="n">
+        <v>350.7666666666667</v>
+      </c>
+      <c r="J322" t="n">
+        <v>343.9896296296296</v>
+      </c>
+      <c r="K322" t="n">
+        <v>339.68</v>
+      </c>
+      <c r="L322" t="n">
+        <v>344.5053846153846</v>
+      </c>
+      <c r="M322" t="n">
+        <v>342.4753846153847</v>
+      </c>
+      <c r="N322" t="n">
+        <v>341.1842857142857</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15956,7 +16211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19224,6 +19479,56 @@
       </c>
       <c r="B326" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -19397,28 +19702,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1155607612417336</v>
+        <v>0.1288739458235163</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00579361448012683</v>
+        <v>0.007349916397498601</v>
       </c>
       <c r="M2" t="n">
-        <v>8.651996559953878</v>
+        <v>8.649004495492582</v>
       </c>
       <c r="N2" t="n">
-        <v>117.546193510189</v>
+        <v>117.2866940285601</v>
       </c>
       <c r="O2" t="n">
-        <v>10.8418722326999</v>
+        <v>10.82989815411762</v>
       </c>
       <c r="P2" t="n">
-        <v>331.2419414892095</v>
+        <v>331.1085588701295</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19475,28 +19780,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1143846494624423</v>
+        <v>0.1293080190825364</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007844484257264694</v>
+        <v>0.01021152496651245</v>
       </c>
       <c r="M3" t="n">
-        <v>6.917393363933652</v>
+        <v>6.901090793667619</v>
       </c>
       <c r="N3" t="n">
-        <v>84.2379082889049</v>
+        <v>84.11839500854937</v>
       </c>
       <c r="O3" t="n">
-        <v>9.178121174233041</v>
+        <v>9.171608092834614</v>
       </c>
       <c r="P3" t="n">
-        <v>328.7886751664169</v>
+        <v>328.6378961700906</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19553,28 +19858,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1985131934528083</v>
+        <v>0.2130226005037828</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02447758938940392</v>
+        <v>0.02864301452608886</v>
       </c>
       <c r="M4" t="n">
-        <v>6.719534104331356</v>
+        <v>6.709544359378695</v>
       </c>
       <c r="N4" t="n">
-        <v>80.36934869385411</v>
+        <v>80.26267663498307</v>
       </c>
       <c r="O4" t="n">
-        <v>8.964895353201515</v>
+        <v>8.958943946413722</v>
       </c>
       <c r="P4" t="n">
-        <v>340.1409999589121</v>
+        <v>339.995111257047</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19631,28 +19936,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2311710887942016</v>
+        <v>0.2474835559812794</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03302091723890188</v>
+        <v>0.03839259872881584</v>
       </c>
       <c r="M5" t="n">
-        <v>6.784011111978212</v>
+        <v>6.778595731802597</v>
       </c>
       <c r="N5" t="n">
-        <v>80.42972378257919</v>
+        <v>80.43032952683133</v>
       </c>
       <c r="O5" t="n">
-        <v>8.968262026868929</v>
+        <v>8.968295798357195</v>
       </c>
       <c r="P5" t="n">
-        <v>336.2760886710636</v>
+        <v>336.1135095245622</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19709,28 +20014,28 @@
         <v>0.1518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07495991996884366</v>
+        <v>0.1027182549349339</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003579045628834043</v>
+        <v>0.006767348990212696</v>
       </c>
       <c r="M6" t="n">
-        <v>6.984682112961907</v>
+        <v>7.027620023185234</v>
       </c>
       <c r="N6" t="n">
-        <v>80.61721850763158</v>
+        <v>81.33540110259561</v>
       </c>
       <c r="O6" t="n">
-        <v>8.978709178252272</v>
+        <v>9.018614145343818</v>
       </c>
       <c r="P6" t="n">
-        <v>345.1249770585507</v>
+        <v>344.8482213025882</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19787,28 +20092,28 @@
         <v>0.1765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1141442521836605</v>
+        <v>0.1397694176818139</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009334191968648597</v>
+        <v>0.01404775688314575</v>
       </c>
       <c r="M7" t="n">
-        <v>6.525403378680008</v>
+        <v>6.566508768225381</v>
       </c>
       <c r="N7" t="n">
-        <v>72.78105811486238</v>
+        <v>73.50967913075176</v>
       </c>
       <c r="O7" t="n">
-        <v>8.531181519277524</v>
+        <v>8.573778579526751</v>
       </c>
       <c r="P7" t="n">
-        <v>348.8981600743494</v>
+        <v>348.6459042151275</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19865,28 +20170,28 @@
         <v>0.1785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1301419716619919</v>
+        <v>0.1562682230012394</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009716160879560509</v>
+        <v>0.01408875717607305</v>
       </c>
       <c r="M8" t="n">
-        <v>7.535871212177706</v>
+        <v>7.559133533207396</v>
       </c>
       <c r="N8" t="n">
-        <v>91.17553259137981</v>
+        <v>91.84030711950145</v>
       </c>
       <c r="O8" t="n">
-        <v>9.548587989403449</v>
+        <v>9.583334864205749</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2054301404707</v>
+        <v>349.9472784273539</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19943,28 +20248,28 @@
         <v>0.1974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1379535866944566</v>
+        <v>0.1574961973197865</v>
       </c>
       <c r="J9" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009026856446665787</v>
+        <v>0.01198637461025076</v>
       </c>
       <c r="M9" t="n">
-        <v>8.237159195499624</v>
+        <v>8.215901766429244</v>
       </c>
       <c r="N9" t="n">
-        <v>110.7008991490716</v>
+        <v>110.1017034059962</v>
       </c>
       <c r="O9" t="n">
-        <v>10.52144947947153</v>
+        <v>10.49293588115339</v>
       </c>
       <c r="P9" t="n">
-        <v>348.7274272376184</v>
+        <v>348.5334055947918</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20021,28 +20326,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1864051085605211</v>
+        <v>0.2079334695804786</v>
       </c>
       <c r="J10" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01591743953051472</v>
+        <v>0.02017134581911939</v>
       </c>
       <c r="M10" t="n">
-        <v>8.298070578130099</v>
+        <v>8.269162724248661</v>
       </c>
       <c r="N10" t="n">
-        <v>113.0363063371914</v>
+        <v>112.3297170325192</v>
       </c>
       <c r="O10" t="n">
-        <v>10.63185338203981</v>
+        <v>10.59857146187727</v>
       </c>
       <c r="P10" t="n">
-        <v>339.6524439010357</v>
+        <v>339.437455159593</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20099,28 +20404,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1632670371793088</v>
+        <v>0.199283164308409</v>
       </c>
       <c r="J11" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K11" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01053072010358491</v>
+        <v>0.01568055764710807</v>
       </c>
       <c r="M11" t="n">
-        <v>9.113258714514958</v>
+        <v>9.148865939176357</v>
       </c>
       <c r="N11" t="n">
-        <v>131.3520270361369</v>
+        <v>132.9286415079249</v>
       </c>
       <c r="O11" t="n">
-        <v>11.46089119729076</v>
+        <v>11.52946839658815</v>
       </c>
       <c r="P11" t="n">
-        <v>335.2908299432837</v>
+        <v>334.9303698265452</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20177,28 +20482,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2405503197138989</v>
+        <v>0.2664010816637468</v>
       </c>
       <c r="J12" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01890223123656953</v>
+        <v>0.02365029644281713</v>
       </c>
       <c r="M12" t="n">
-        <v>9.743575689578654</v>
+        <v>9.714007019990927</v>
       </c>
       <c r="N12" t="n">
-        <v>154.7301621609548</v>
+        <v>153.5336061309895</v>
       </c>
       <c r="O12" t="n">
-        <v>12.43905792899747</v>
+        <v>12.39086785221235</v>
       </c>
       <c r="P12" t="n">
-        <v>333.440182023437</v>
+        <v>333.1790627569457</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20255,28 +20560,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2963516829133917</v>
+        <v>0.3039112679730415</v>
       </c>
       <c r="J13" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K13" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0321713183409289</v>
+        <v>0.03484479415892383</v>
       </c>
       <c r="M13" t="n">
-        <v>9.248235392516897</v>
+        <v>9.158721219729902</v>
       </c>
       <c r="N13" t="n">
-        <v>137.6246475043739</v>
+        <v>135.6070755829172</v>
       </c>
       <c r="O13" t="n">
-        <v>11.73135318300382</v>
+        <v>11.6450451086682</v>
       </c>
       <c r="P13" t="n">
-        <v>336.8163248115406</v>
+        <v>336.7409437850379</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20333,28 +20638,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3132494648340992</v>
+        <v>0.3252324574895836</v>
       </c>
       <c r="J14" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K14" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03661055005816016</v>
+        <v>0.04056447789250317</v>
       </c>
       <c r="M14" t="n">
-        <v>9.058367688160335</v>
+        <v>8.963793376262712</v>
       </c>
       <c r="N14" t="n">
-        <v>134.3094620598892</v>
+        <v>132.4690119231003</v>
       </c>
       <c r="O14" t="n">
-        <v>11.58919591947125</v>
+        <v>11.50951831846582</v>
       </c>
       <c r="P14" t="n">
-        <v>333.6249602337041</v>
+        <v>333.5053318638001</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20392,7 +20697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43441,6 +43746,391 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-36.6936238765124,175.60417698430052</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-36.69434450854494,175.6042966014376</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-36.69504709422789,175.60458968015223</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-36.69571787069048,175.60497365630133</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-36.69630868072976,175.60550636901112</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-36.69693859904671,175.6059473458396</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-36.697521242430845,175.60647767610408</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-36.69809917406633,175.6070132102652</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-36.698642798429994,175.60761348064614</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-36.699185301252285,175.60821518058336</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-36.69964045248837,175.60891870286838</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-36.7000921006108,175.60963992402566</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-36.70040364753788,175.61046369855396</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-36.693606519416825,175.604311064971</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-36.69434111634144,175.6043186509963</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-36.69502214803587,175.6046795067455</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-36.695703981567135,175.60500772444792</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-36.69628441618879,175.6055587683339</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-36.69687026575404,175.606076229922</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-36.69748587076232,175.6065360020421</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-36.698060855833724,175.60706393198075</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-36.69859390622513,175.6076690931314</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-36.699092028549785,175.6083186036728</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-36.699582438886424,175.6089782238401</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-36.70008524985628,175.60964516323037</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-36.700451456226524,175.6104357806009</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-36.693615905734276,175.6042385573845</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-36.69432136033904,175.6044470658248</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-36.69500212802181,175.60475159487345</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-36.69566197505055,175.60511076055212</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-36.69629355684843,175.60553902907137</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-36.69688939177775,175.60604015619268</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-36.69743722112562,175.60661622245962</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-36.69804189189678,175.60708903445186</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-36.698608782291764,175.6076521723454</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-36.699025904336764,175.60839192363738</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-36.69966720744008,175.6088912527025</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-36.700099712560046,175.609634102686</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-36.700430772127085,175.61044785911525</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-36.69361602420341,175.60423764222983</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-36.69435599805484,175.60422191861377</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-36.695043673909396,175.6046019961</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-36.69573599164209,175.60492920799723</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-36.69635259451877,175.60541153689311</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-36.69694451143087,175.6059361944122</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-36.69752550581708,175.60647064600778</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-36.698121158244426,175.6069841098479</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-36.6986582157949,175.6075959441295</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-36.69917071899796,175.60823134977156</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-36.699662180202196,175.60889641057256</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-36.70014417459969,175.60960009972223</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-36.70047908160999,175.6104196487016</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-36.69364625471101,175.60400411464664</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-36.694358167476494,175.60420781714592</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-36.69506673500247,175.60451895716966</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-36.6957544923578,175.6048838281195</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-36.6963721850477,175.60536923093048</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-36.696973065448034,175.60588233824515</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-36.6975706145875,175.60639626396605</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-36.69814090290723,175.60695797385145</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-36.698686334149286,175.60756396081882</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-36.69921171058338,175.60818589719943</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-36.699664904847616,175.60889361512767</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-36.70014580320245,175.60959885422474</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-36.70048258719182,175.61041760160904</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O322"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16200,6 +16200,100 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="n">
+        <v>324.2684615384616</v>
+      </c>
+      <c r="G323" t="n">
+        <v>332.9793103448276</v>
+      </c>
+      <c r="H323" t="n">
+        <v>327.9433333333333</v>
+      </c>
+      <c r="I323" t="n">
+        <v>321.0533333333333</v>
+      </c>
+      <c r="J323" t="n">
+        <v>317.9014814814815</v>
+      </c>
+      <c r="K323" t="n">
+        <v>305.6</v>
+      </c>
+      <c r="L323" t="n">
+        <v>301.0084615384616</v>
+      </c>
+      <c r="M323" t="n">
+        <v>308.8084615384616</v>
+      </c>
+      <c r="N323" t="n">
+        <v>302.0828571428572</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>313.8533333333333</v>
+      </c>
+      <c r="C324" t="n">
+        <v>319.6733333333333</v>
+      </c>
+      <c r="D324" t="n">
+        <v>333.9618181818182</v>
+      </c>
+      <c r="E324" t="n">
+        <v>325.9666666666667</v>
+      </c>
+      <c r="F324" t="n">
+        <v>338.0823076923077</v>
+      </c>
+      <c r="G324" t="n">
+        <v>339.3837931034483</v>
+      </c>
+      <c r="H324" t="n">
+        <v>336.0933333333333</v>
+      </c>
+      <c r="I324" t="n">
+        <v>342.1433333333333</v>
+      </c>
+      <c r="J324" t="n">
+        <v>332.6225925925926</v>
+      </c>
+      <c r="K324" t="n">
+        <v>325.09</v>
+      </c>
+      <c r="L324" t="n">
+        <v>327.4723076923077</v>
+      </c>
+      <c r="M324" t="n">
+        <v>330.3623076923077</v>
+      </c>
+      <c r="N324" t="n">
+        <v>329.55</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16211,7 +16305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19529,6 +19623,26 @@
       </c>
       <c r="B331" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -19702,28 +19816,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1288739458235163</v>
+        <v>0.1146663596378203</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007349916397498601</v>
+        <v>0.00579798077433602</v>
       </c>
       <c r="M2" t="n">
-        <v>8.649004495492582</v>
+        <v>8.702777824947248</v>
       </c>
       <c r="N2" t="n">
-        <v>117.2866940285601</v>
+        <v>118.3336480810812</v>
       </c>
       <c r="O2" t="n">
-        <v>10.82989815411762</v>
+        <v>10.87812704839768</v>
       </c>
       <c r="P2" t="n">
-        <v>331.1085588701295</v>
+        <v>331.2521460243308</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19780,28 +19894,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1293080190825364</v>
+        <v>0.1206159622986755</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01021152496651245</v>
+        <v>0.008905895064948655</v>
       </c>
       <c r="M3" t="n">
-        <v>6.901090793667619</v>
+        <v>6.929050334900253</v>
       </c>
       <c r="N3" t="n">
-        <v>84.11839500854937</v>
+        <v>84.34978271547638</v>
       </c>
       <c r="O3" t="n">
-        <v>9.171608092834614</v>
+        <v>9.184213777753454</v>
       </c>
       <c r="P3" t="n">
-        <v>328.6378961700906</v>
+        <v>328.7264230985048</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19858,28 +19972,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2130226005037828</v>
+        <v>0.205136552956512</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02864301452608886</v>
+        <v>0.02665762647018366</v>
       </c>
       <c r="M4" t="n">
-        <v>6.709544359378695</v>
+        <v>6.730397744217674</v>
       </c>
       <c r="N4" t="n">
-        <v>80.26267663498307</v>
+        <v>80.4360029632864</v>
       </c>
       <c r="O4" t="n">
-        <v>8.958943946413722</v>
+        <v>8.968612097938365</v>
       </c>
       <c r="P4" t="n">
-        <v>339.995111257047</v>
+        <v>340.0749949474634</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19936,28 +20050,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2474835559812794</v>
+        <v>0.2359468194804926</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03839259872881584</v>
+        <v>0.0348749971992921</v>
       </c>
       <c r="M5" t="n">
-        <v>6.778595731802597</v>
+        <v>6.816991294423786</v>
       </c>
       <c r="N5" t="n">
-        <v>80.43032952683133</v>
+        <v>81.08987236399655</v>
       </c>
       <c r="O5" t="n">
-        <v>8.968295798357195</v>
+        <v>9.004991524926414</v>
       </c>
       <c r="P5" t="n">
-        <v>336.1135095245622</v>
+        <v>336.2293926064255</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20014,28 +20128,28 @@
         <v>0.1518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1027182549349339</v>
+        <v>0.08097499909880435</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006767348990212696</v>
+        <v>0.004168832844675951</v>
       </c>
       <c r="M6" t="n">
-        <v>7.027620023185234</v>
+        <v>7.086069259571084</v>
       </c>
       <c r="N6" t="n">
-        <v>81.33540110259561</v>
+        <v>82.8704035073725</v>
       </c>
       <c r="O6" t="n">
-        <v>9.018614145343818</v>
+        <v>9.103318269036434</v>
       </c>
       <c r="P6" t="n">
-        <v>344.8482213025882</v>
+        <v>345.0664276927058</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20092,28 +20206,28 @@
         <v>0.1765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1397694176818139</v>
+        <v>0.1188978759230748</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01404775688314575</v>
+        <v>0.0101049153366306</v>
       </c>
       <c r="M7" t="n">
-        <v>6.566508768225381</v>
+        <v>6.624315589830994</v>
       </c>
       <c r="N7" t="n">
-        <v>73.50967913075176</v>
+        <v>74.77531821234945</v>
       </c>
       <c r="O7" t="n">
-        <v>8.573778579526751</v>
+        <v>8.647272298959335</v>
       </c>
       <c r="P7" t="n">
-        <v>348.6459042151275</v>
+        <v>348.8526545826472</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20170,28 +20284,28 @@
         <v>0.1785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1562682230012394</v>
+        <v>0.1285167667735879</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01408875717607305</v>
+        <v>0.009372479803694822</v>
       </c>
       <c r="M8" t="n">
-        <v>7.559133533207396</v>
+        <v>7.661598611042707</v>
       </c>
       <c r="N8" t="n">
-        <v>91.84030711950145</v>
+        <v>94.45239966848744</v>
       </c>
       <c r="O8" t="n">
-        <v>9.583334864205749</v>
+        <v>9.718662442357356</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9472784273539</v>
+        <v>350.2232207731261</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20248,28 +20362,28 @@
         <v>0.1974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1574961973197865</v>
+        <v>0.131833770512321</v>
       </c>
       <c r="J9" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01198637461025076</v>
+        <v>0.00827286453120657</v>
       </c>
       <c r="M9" t="n">
-        <v>8.215901766429244</v>
+        <v>8.295875386928609</v>
       </c>
       <c r="N9" t="n">
-        <v>110.1017034059962</v>
+        <v>112.897014299565</v>
       </c>
       <c r="O9" t="n">
-        <v>10.49293588115339</v>
+        <v>10.62530066866651</v>
       </c>
       <c r="P9" t="n">
-        <v>348.5334055947918</v>
+        <v>348.7897851961525</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20326,28 +20440,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2079334695804786</v>
+        <v>0.1836990685264363</v>
       </c>
       <c r="J10" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02017134581911939</v>
+        <v>0.0156298030101587</v>
       </c>
       <c r="M10" t="n">
-        <v>8.269162724248661</v>
+        <v>8.349391895397504</v>
       </c>
       <c r="N10" t="n">
-        <v>112.3297170325192</v>
+        <v>114.389819109161</v>
       </c>
       <c r="O10" t="n">
-        <v>10.59857146187727</v>
+        <v>10.69531762544531</v>
       </c>
       <c r="P10" t="n">
-        <v>339.437455159593</v>
+        <v>339.6810017794103</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20404,28 +20518,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.199283164308409</v>
+        <v>0.1682012275539245</v>
       </c>
       <c r="J11" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01568055764710807</v>
+        <v>0.01098998525512573</v>
       </c>
       <c r="M11" t="n">
-        <v>9.148865939176357</v>
+        <v>9.249172271005685</v>
       </c>
       <c r="N11" t="n">
-        <v>132.9286415079249</v>
+        <v>136.6302068772282</v>
       </c>
       <c r="O11" t="n">
-        <v>11.52946839658815</v>
+        <v>11.68889245725309</v>
       </c>
       <c r="P11" t="n">
-        <v>334.9303698265452</v>
+        <v>335.2432166422242</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20482,28 +20596,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2664010816637468</v>
+        <v>0.2335730254274857</v>
       </c>
       <c r="J12" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02365029644281713</v>
+        <v>0.01789235128224886</v>
       </c>
       <c r="M12" t="n">
-        <v>9.714007019990927</v>
+        <v>9.818134899742988</v>
       </c>
       <c r="N12" t="n">
-        <v>153.5336061309895</v>
+        <v>157.9631158658637</v>
       </c>
       <c r="O12" t="n">
-        <v>12.39086785221235</v>
+        <v>12.56833783226182</v>
       </c>
       <c r="P12" t="n">
-        <v>333.1790627569457</v>
+        <v>333.5126013412732</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20560,28 +20674,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3039112679730415</v>
+        <v>0.2719772320587018</v>
       </c>
       <c r="J13" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03484479415892383</v>
+        <v>0.02751452053317205</v>
       </c>
       <c r="M13" t="n">
-        <v>9.158721219729902</v>
+        <v>9.254210302073721</v>
       </c>
       <c r="N13" t="n">
-        <v>135.6070755829172</v>
+        <v>139.5202675695004</v>
       </c>
       <c r="O13" t="n">
-        <v>11.6450451086682</v>
+        <v>11.81186977448957</v>
       </c>
       <c r="P13" t="n">
-        <v>336.7409437850379</v>
+        <v>337.0619334251389</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20638,28 +20752,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3252324574895836</v>
+        <v>0.2913375843427788</v>
       </c>
       <c r="J14" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04056447789250317</v>
+        <v>0.03190126348180966</v>
       </c>
       <c r="M14" t="n">
-        <v>8.963793376262712</v>
+        <v>9.09460387590685</v>
       </c>
       <c r="N14" t="n">
-        <v>132.4690119231003</v>
+        <v>137.3207077809914</v>
       </c>
       <c r="O14" t="n">
-        <v>11.50951831846582</v>
+        <v>11.71839185984969</v>
       </c>
       <c r="P14" t="n">
-        <v>333.5053318638001</v>
+        <v>333.8462119775425</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20697,7 +20811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O322"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44131,6 +44245,144 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-36.69646158414335,175.60517617192883</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-36.697055083595735,175.60572764209925</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-36.69769105497252,175.60619766318433</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-36.69832404929912,175.60671554212684</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-36.69885964519913,175.60736682691106</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-36.69944072557793,175.60793195801054</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-36.69996699820814,175.60858367033032</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-36.70040406051024,175.6094013474598</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-36.700801362085336,175.61023145145802</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-36.69365632100694,175.6039263527181</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-36.694371713646326,175.60411976536304</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-36.695081783289986,175.60446477080202</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-36.69579976750004,175.6047727737488</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-36.69639954820134,175.6053101398108</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-36.69702335565315,175.60578748491835</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-36.6976468857057,175.60627049645245</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-36.69819405526671,175.6068876160086</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-36.69876184867265,175.60747806642772</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-36.69930975432802,175.60807718339345</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-36.69978320248441,175.6087722432987</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-36.700238722051495,175.60952779309372</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-36.70057743587971,175.61036221442532</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16294,6 +16294,88 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>306.6985714285714</v>
+      </c>
+      <c r="C325" t="n">
+        <v>305.66</v>
+      </c>
+      <c r="D325" t="n">
+        <v>318.9009090909091</v>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>314.6633333333333</v>
+      </c>
+      <c r="C326" t="n">
+        <v>320.7033333333333</v>
+      </c>
+      <c r="D326" t="n">
+        <v>338.0963636363636</v>
+      </c>
+      <c r="E326" t="n">
+        <v>330.2166666666667</v>
+      </c>
+      <c r="F326" t="n">
+        <v>336.7353846153846</v>
+      </c>
+      <c r="G326" t="n">
+        <v>340.7324137931034</v>
+      </c>
+      <c r="H326" t="n">
+        <v>343.4433333333333</v>
+      </c>
+      <c r="I326" t="n">
+        <v>346.2633333333333</v>
+      </c>
+      <c r="J326" t="n">
+        <v>333.2348148148149</v>
+      </c>
+      <c r="K326" t="n">
+        <v>328.13</v>
+      </c>
+      <c r="L326" t="n">
+        <v>331.8953846153846</v>
+      </c>
+      <c r="M326" t="n">
+        <v>331.8653846153846</v>
+      </c>
+      <c r="N326" t="n">
+        <v>330.78</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16305,7 +16387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19643,6 +19725,26 @@
       </c>
       <c r="B333" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -19816,28 +19918,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1146663596378203</v>
+        <v>0.08268267193379933</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00579798077433602</v>
+        <v>0.002969517137900946</v>
       </c>
       <c r="M2" t="n">
-        <v>8.702777824947248</v>
+        <v>8.832585429547848</v>
       </c>
       <c r="N2" t="n">
-        <v>118.3336480810812</v>
+        <v>121.3683929979908</v>
       </c>
       <c r="O2" t="n">
-        <v>10.87812704839768</v>
+        <v>11.0167324102018</v>
       </c>
       <c r="P2" t="n">
-        <v>331.2521460243308</v>
+        <v>331.5761990838918</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19894,28 +19996,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1206159622986755</v>
+        <v>0.09465534433710056</v>
       </c>
       <c r="J3" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008905895064948655</v>
+        <v>0.005403656930291545</v>
       </c>
       <c r="M3" t="n">
-        <v>6.929050334900253</v>
+        <v>7.037117449789601</v>
       </c>
       <c r="N3" t="n">
-        <v>84.34978271547638</v>
+        <v>86.56251316640238</v>
       </c>
       <c r="O3" t="n">
-        <v>9.184213777753454</v>
+        <v>9.303897740538767</v>
       </c>
       <c r="P3" t="n">
-        <v>328.7264230985048</v>
+        <v>328.9914601939196</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19972,28 +20074,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205136552956512</v>
+        <v>0.1823873155503531</v>
       </c>
       <c r="J4" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02665762647018366</v>
+        <v>0.02084032502706068</v>
       </c>
       <c r="M4" t="n">
-        <v>6.730397744217674</v>
+        <v>6.811996734405332</v>
       </c>
       <c r="N4" t="n">
-        <v>80.4360029632864</v>
+        <v>82.42226965910733</v>
       </c>
       <c r="O4" t="n">
-        <v>8.968612097938365</v>
+        <v>9.078671139495434</v>
       </c>
       <c r="P4" t="n">
-        <v>340.0749949474634</v>
+        <v>340.3059698413012</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20050,28 +20152,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2359468194804926</v>
+        <v>0.227540407634853</v>
       </c>
       <c r="J5" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0348749971992921</v>
+        <v>0.03255105285076187</v>
       </c>
       <c r="M5" t="n">
-        <v>6.816991294423786</v>
+        <v>6.839071645839589</v>
       </c>
       <c r="N5" t="n">
-        <v>81.08987236399655</v>
+        <v>81.30930312198306</v>
       </c>
       <c r="O5" t="n">
-        <v>9.004991524926414</v>
+        <v>9.017167133971903</v>
       </c>
       <c r="P5" t="n">
-        <v>336.2293926064255</v>
+        <v>336.3140942837819</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20128,28 +20230,28 @@
         <v>0.1518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08097499909880435</v>
+        <v>0.07404073694978244</v>
       </c>
       <c r="J6" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004168832844675951</v>
+        <v>0.00349703044948857</v>
       </c>
       <c r="M6" t="n">
-        <v>7.086069259571084</v>
+        <v>7.096551693292857</v>
       </c>
       <c r="N6" t="n">
-        <v>82.8704035073725</v>
+        <v>82.95248303469604</v>
       </c>
       <c r="O6" t="n">
-        <v>9.103318269036434</v>
+        <v>9.107825373528856</v>
       </c>
       <c r="P6" t="n">
-        <v>345.0664276927058</v>
+        <v>345.1363419433017</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20206,28 +20308,28 @@
         <v>0.1765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1188978759230748</v>
+        <v>0.1116405077234502</v>
       </c>
       <c r="J7" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0101049153366306</v>
+        <v>0.008931727393727829</v>
       </c>
       <c r="M7" t="n">
-        <v>6.624315589830994</v>
+        <v>6.637591281466293</v>
       </c>
       <c r="N7" t="n">
-        <v>74.77531821234945</v>
+        <v>74.93805915714739</v>
       </c>
       <c r="O7" t="n">
-        <v>8.647272298959335</v>
+        <v>8.656677142942746</v>
       </c>
       <c r="P7" t="n">
-        <v>348.8526545826472</v>
+        <v>348.924870764613</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20284,28 +20386,28 @@
         <v>0.1785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1285167667735879</v>
+        <v>0.1221474244130178</v>
       </c>
       <c r="J8" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009372479803694822</v>
+        <v>0.008500572701225062</v>
       </c>
       <c r="M8" t="n">
-        <v>7.661598611042707</v>
+        <v>7.671524096574658</v>
       </c>
       <c r="N8" t="n">
-        <v>94.45239966848744</v>
+        <v>94.47218773036079</v>
       </c>
       <c r="O8" t="n">
-        <v>9.718662442357356</v>
+        <v>9.719680433551341</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2232207731261</v>
+        <v>350.2868441467589</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20362,28 +20464,28 @@
         <v>0.1974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.131833770512321</v>
+        <v>0.12821853880132</v>
       </c>
       <c r="J9" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00827286453120657</v>
+        <v>0.007870663975975023</v>
       </c>
       <c r="M9" t="n">
-        <v>8.295875386928609</v>
+        <v>8.287719547206157</v>
       </c>
       <c r="N9" t="n">
-        <v>112.897014299565</v>
+        <v>112.6442325727422</v>
       </c>
       <c r="O9" t="n">
-        <v>10.62530066866651</v>
+        <v>10.61339872862328</v>
       </c>
       <c r="P9" t="n">
-        <v>348.7897851961525</v>
+        <v>348.8260851436886</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20440,28 +20542,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1836990685264363</v>
+        <v>0.1767655780614304</v>
       </c>
       <c r="J10" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K10" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0156298030101587</v>
+        <v>0.01453046701089089</v>
       </c>
       <c r="M10" t="n">
-        <v>8.349391895397504</v>
+        <v>8.360310920123357</v>
       </c>
       <c r="N10" t="n">
-        <v>114.389819109161</v>
+        <v>114.4186251354447</v>
       </c>
       <c r="O10" t="n">
-        <v>10.69531762544531</v>
+        <v>10.69666420597771</v>
       </c>
       <c r="P10" t="n">
-        <v>339.6810017794103</v>
+        <v>339.7510209098494</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20518,28 +20620,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1682012275539245</v>
+        <v>0.1610093666825761</v>
       </c>
       <c r="J11" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01098998525512573</v>
+        <v>0.0101133313545636</v>
       </c>
       <c r="M11" t="n">
-        <v>9.249172271005685</v>
+        <v>9.256326256942005</v>
       </c>
       <c r="N11" t="n">
-        <v>136.6302068772282</v>
+        <v>136.6057638594584</v>
       </c>
       <c r="O11" t="n">
-        <v>11.68889245725309</v>
+        <v>11.68784684445593</v>
       </c>
       <c r="P11" t="n">
-        <v>335.2432166422242</v>
+        <v>335.3159575955713</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20596,28 +20698,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2335730254274857</v>
+        <v>0.2287263062998372</v>
       </c>
       <c r="J12" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K12" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01789235128224886</v>
+        <v>0.01726126193261079</v>
       </c>
       <c r="M12" t="n">
-        <v>9.818134899742988</v>
+        <v>9.810361886653487</v>
       </c>
       <c r="N12" t="n">
-        <v>157.9631158658637</v>
+        <v>157.6317729757632</v>
       </c>
       <c r="O12" t="n">
-        <v>12.56833783226182</v>
+        <v>12.55514926138926</v>
       </c>
       <c r="P12" t="n">
-        <v>333.5126013412732</v>
+        <v>333.5620858447706</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20674,28 +20776,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2719772320587018</v>
+        <v>0.2641856947976034</v>
       </c>
       <c r="J13" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02751452053317205</v>
+        <v>0.0260820247022554</v>
       </c>
       <c r="M13" t="n">
-        <v>9.254210302073721</v>
+        <v>9.261429565040084</v>
       </c>
       <c r="N13" t="n">
-        <v>139.5202675695004</v>
+        <v>139.5435362595406</v>
       </c>
       <c r="O13" t="n">
-        <v>11.81186977448957</v>
+        <v>11.81285470407304</v>
       </c>
       <c r="P13" t="n">
-        <v>337.0619334251389</v>
+        <v>337.14062862897</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20752,28 +20854,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2913375843427788</v>
+        <v>0.2844750655459467</v>
       </c>
       <c r="J14" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03190126348180966</v>
+        <v>0.03058244862095993</v>
       </c>
       <c r="M14" t="n">
-        <v>9.09460387590685</v>
+        <v>9.103273309265974</v>
       </c>
       <c r="N14" t="n">
-        <v>137.3207077809914</v>
+        <v>137.2280577496926</v>
       </c>
       <c r="O14" t="n">
-        <v>11.71839185984969</v>
+        <v>11.71443800400568</v>
       </c>
       <c r="P14" t="n">
-        <v>333.8462119775425</v>
+        <v>333.9155677349131</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20811,7 +20913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23000,7 +23102,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.693605281612534,175.60432062675628</t>
+          <t>-36.69360528161254,175.60432062675628</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -40967,7 +41069,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>-36.69893828685407,175.60727737498937</t>
+          <t>-36.69893828685408,175.60727737498937</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -44383,6 +44485,120 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-36.69366655065442,175.6038473284821</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-36.69439540238517,175.60396578454097</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-36.695126017534044,175.6043054900557</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-36.693655162891844,175.60393529915422</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-36.6943699724825,175.60413108316902</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-36.69506963999666,175.60450849677966</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-36.69578247398074,175.60481519267506</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-36.69640559704014,175.60529707724336</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-36.697016674554206,175.60580008628307</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-36.69760705203675,175.60633618037014</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-36.69816866048358,175.60692123113236</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-36.69875778150432,175.60748269265557</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-36.69928932575534,175.6080998352304</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-36.69975248346825,175.60880376065415</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>-36.70022719202043,175.60953661087441</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>-36.700567408287384,175.61036807007557</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:O327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16376,6 +16376,49 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>315.0990476190476</v>
+      </c>
+      <c r="C327" t="n">
+        <v>325.3433333333333</v>
+      </c>
+      <c r="D327" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="E327" t="n">
+        <v>331.0866666666667</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>331.2414814814815</v>
+      </c>
+      <c r="K327" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="L327" t="n">
+        <v>331.8707692307692</v>
+      </c>
+      <c r="M327" t="n">
+        <v>332.0107692307692</v>
+      </c>
+      <c r="N327" t="n">
+        <v>336.9514285714286</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16387,7 +16430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19745,6 +19788,16 @@
       </c>
       <c r="B335" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -19918,28 +19971,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08268267193379933</v>
+        <v>0.07009471928108378</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002969517137900946</v>
+        <v>0.002130383644905809</v>
       </c>
       <c r="M2" t="n">
-        <v>8.832585429547848</v>
+        <v>8.878643547454228</v>
       </c>
       <c r="N2" t="n">
-        <v>121.3683929979908</v>
+        <v>122.1302758991784</v>
       </c>
       <c r="O2" t="n">
-        <v>11.0167324102018</v>
+        <v>11.05125675654938</v>
       </c>
       <c r="P2" t="n">
-        <v>331.5761990838918</v>
+        <v>331.7040848089468</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19996,28 +20049,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09465534433710056</v>
+        <v>0.09044282589707922</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005403656930291545</v>
+        <v>0.004963873709006306</v>
       </c>
       <c r="M3" t="n">
-        <v>7.037117449789601</v>
+        <v>7.037855140848887</v>
       </c>
       <c r="N3" t="n">
-        <v>86.56251316640238</v>
+        <v>86.38577715523118</v>
       </c>
       <c r="O3" t="n">
-        <v>9.303897740538767</v>
+        <v>9.294394932174509</v>
       </c>
       <c r="P3" t="n">
-        <v>328.9914601939196</v>
+        <v>329.0345890035177</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20074,28 +20127,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1823873155503531</v>
+        <v>0.177760530155259</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02084032502706068</v>
+        <v>0.01991623720901947</v>
       </c>
       <c r="M4" t="n">
-        <v>6.811996734405332</v>
+        <v>6.814641520268083</v>
       </c>
       <c r="N4" t="n">
-        <v>82.42226965910733</v>
+        <v>82.30031747545402</v>
       </c>
       <c r="O4" t="n">
-        <v>9.078671139495434</v>
+        <v>9.071952241687233</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3059698413012</v>
+        <v>340.3530835457906</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20152,28 +20205,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.227540407634853</v>
+        <v>0.2198761162733789</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03255105285076187</v>
+        <v>0.03052448813407049</v>
       </c>
       <c r="M5" t="n">
-        <v>6.839071645839589</v>
+        <v>6.857008298340754</v>
       </c>
       <c r="N5" t="n">
-        <v>81.30930312198306</v>
+        <v>81.44825530997572</v>
       </c>
       <c r="O5" t="n">
-        <v>9.017167133971903</v>
+        <v>9.024868714279211</v>
       </c>
       <c r="P5" t="n">
-        <v>336.3140942837819</v>
+        <v>336.3914776641773</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20233,7 +20286,7 @@
         <v>0.07404073694978244</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K6" t="n">
         <v>296</v>
@@ -20311,7 +20364,7 @@
         <v>0.1116405077234502</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K7" t="n">
         <v>299</v>
@@ -20389,7 +20442,7 @@
         <v>0.1221474244130178</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K8" t="n">
         <v>304</v>
@@ -20467,7 +20520,7 @@
         <v>0.12821853880132</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K9" t="n">
         <v>310</v>
@@ -20542,28 +20595,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1767655780614304</v>
+        <v>0.168698793367196</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01453046701089089</v>
+        <v>0.01327254955888491</v>
       </c>
       <c r="M10" t="n">
-        <v>8.360310920123357</v>
+        <v>8.377421460411046</v>
       </c>
       <c r="N10" t="n">
-        <v>114.4186251354447</v>
+        <v>114.5950824547142</v>
       </c>
       <c r="O10" t="n">
-        <v>10.69666420597771</v>
+        <v>10.70490926886885</v>
       </c>
       <c r="P10" t="n">
-        <v>339.7510209098494</v>
+        <v>339.8326649301209</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20620,28 +20673,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1610093666825761</v>
+        <v>0.1529019618841742</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K11" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0101133313545636</v>
+        <v>0.009151964862540218</v>
       </c>
       <c r="M11" t="n">
-        <v>9.256326256942005</v>
+        <v>9.26861000394495</v>
       </c>
       <c r="N11" t="n">
-        <v>136.6057638594584</v>
+        <v>136.7026132409208</v>
       </c>
       <c r="O11" t="n">
-        <v>11.68784684445593</v>
+        <v>11.69198927646278</v>
       </c>
       <c r="P11" t="n">
-        <v>335.3159575955713</v>
+        <v>335.3981391947679</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20698,28 +20751,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2287263062998372</v>
+        <v>0.223931935099356</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01726126193261079</v>
+        <v>0.01664473553738099</v>
       </c>
       <c r="M12" t="n">
-        <v>9.810361886653487</v>
+        <v>9.802518207486425</v>
       </c>
       <c r="N12" t="n">
-        <v>157.6317729757632</v>
+        <v>157.30063695341</v>
       </c>
       <c r="O12" t="n">
-        <v>12.55514926138926</v>
+        <v>12.54195506902373</v>
       </c>
       <c r="P12" t="n">
-        <v>333.5620858447706</v>
+        <v>333.6111410948535</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20776,28 +20829,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2641856947976034</v>
+        <v>0.2566009019775289</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0260820247022554</v>
+        <v>0.0247220930995955</v>
       </c>
       <c r="M13" t="n">
-        <v>9.261429565040084</v>
+        <v>9.267433006754166</v>
       </c>
       <c r="N13" t="n">
-        <v>139.5435362595406</v>
+        <v>139.5466262795112</v>
       </c>
       <c r="O13" t="n">
-        <v>11.81285470407304</v>
+        <v>11.81298549391775</v>
       </c>
       <c r="P13" t="n">
-        <v>337.14062862897</v>
+        <v>337.2174008876185</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20854,28 +20907,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2844750655459467</v>
+        <v>0.2817113486427916</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03058244862095993</v>
+        <v>0.03019321589611124</v>
       </c>
       <c r="M14" t="n">
-        <v>9.103273309265974</v>
+        <v>9.088942295639868</v>
       </c>
       <c r="N14" t="n">
-        <v>137.2280577496926</v>
+        <v>136.8280338835071</v>
       </c>
       <c r="O14" t="n">
-        <v>11.71443800400568</v>
+        <v>11.69735157561348</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9155677349131</v>
+        <v>333.9435592996335</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20913,7 +20966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:O327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44599,6 +44652,67 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-36.69365453991961,175.60394011161094</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-36.694362128779865,175.60418206822965</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-36.6950695999462,175.60450864099457</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-36.69577893389385,175.60482387607635</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-36.698771023790435,175.60746763012602</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-36.69930027923394,175.6080876896746</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-36.69975265442627,175.60880358525327</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-36.70022607678198,175.6095374637712</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-36.70051709562536,175.61039745031948</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O327"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16419,6 +16419,108 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="C328" t="n">
+        <v>322.51</v>
+      </c>
+      <c r="D328" t="n">
+        <v>336.2109090909091</v>
+      </c>
+      <c r="E328" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="F328" t="n">
+        <v>332.4546153846153</v>
+      </c>
+      <c r="G328" t="n">
+        <v>342.871724137931</v>
+      </c>
+      <c r="H328" t="n">
+        <v>342.61</v>
+      </c>
+      <c r="I328" t="n">
+        <v>340.59</v>
+      </c>
+      <c r="J328" t="n">
+        <v>332.6144444444445</v>
+      </c>
+      <c r="K328" t="n">
+        <v>318.9</v>
+      </c>
+      <c r="L328" t="n">
+        <v>322.4646153846153</v>
+      </c>
+      <c r="M328" t="n">
+        <v>327.0246153846153</v>
+      </c>
+      <c r="N328" t="n">
+        <v>314.26</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>325.9857142857143</v>
+      </c>
+      <c r="C329" t="n">
+        <v>326.91</v>
+      </c>
+      <c r="D329" t="n">
+        <v>335.6318181818182</v>
+      </c>
+      <c r="E329" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="F329" t="n">
+        <v>335.6561538461539</v>
+      </c>
+      <c r="G329" t="n">
+        <v>347.9951724137931</v>
+      </c>
+      <c r="H329" t="n">
+        <v>342.76</v>
+      </c>
+      <c r="I329" t="n">
+        <v>335.56</v>
+      </c>
+      <c r="J329" t="n">
+        <v>334.6777777777777</v>
+      </c>
+      <c r="K329" t="n">
+        <v>324.76</v>
+      </c>
+      <c r="L329" t="n">
+        <v>319.0461538461539</v>
+      </c>
+      <c r="M329" t="n">
+        <v>328.8861538461539</v>
+      </c>
+      <c r="N329" t="n">
+        <v>315.2114285714285</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16430,7 +16532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19798,6 +19900,26 @@
       </c>
       <c r="B336" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -19971,28 +20093,28 @@
         <v>0.1231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07009471928108378</v>
+        <v>0.05452355665201482</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002130383644905809</v>
+        <v>0.001297654146807492</v>
       </c>
       <c r="M2" t="n">
-        <v>8.878643547454228</v>
+        <v>8.911621928145431</v>
       </c>
       <c r="N2" t="n">
-        <v>122.1302758991784</v>
+        <v>122.3138319191704</v>
       </c>
       <c r="O2" t="n">
-        <v>11.05125675654938</v>
+        <v>11.05955839620961</v>
       </c>
       <c r="P2" t="n">
-        <v>331.7040848089468</v>
+        <v>331.8631558453642</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20049,28 +20171,28 @@
         <v>0.1846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09044282589707922</v>
+        <v>0.08130901807971168</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004963873709006306</v>
+        <v>0.004057999842628557</v>
       </c>
       <c r="M3" t="n">
-        <v>7.037855140848887</v>
+        <v>7.043439797749728</v>
       </c>
       <c r="N3" t="n">
-        <v>86.38577715523118</v>
+        <v>86.11788706800458</v>
       </c>
       <c r="O3" t="n">
-        <v>9.294394932174509</v>
+        <v>9.279972363536681</v>
       </c>
       <c r="P3" t="n">
-        <v>329.0345890035177</v>
+        <v>329.1286235272166</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20127,28 +20249,28 @@
         <v>0.1281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.177760530155259</v>
+        <v>0.1657432801568826</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01991623720901947</v>
+        <v>0.01748810429674674</v>
       </c>
       <c r="M4" t="n">
-        <v>6.814641520268083</v>
+        <v>6.835384432356041</v>
       </c>
       <c r="N4" t="n">
-        <v>82.30031747545402</v>
+        <v>82.28258162441189</v>
       </c>
       <c r="O4" t="n">
-        <v>9.071952241687233</v>
+        <v>9.07097467885408</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3530835457906</v>
+        <v>340.4761558351029</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20205,28 +20327,28 @@
         <v>0.1499</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2198761162733789</v>
+        <v>0.2098216786014448</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03052448813407049</v>
+        <v>0.02814294508851334</v>
       </c>
       <c r="M5" t="n">
-        <v>6.857008298340754</v>
+        <v>6.864330299570823</v>
       </c>
       <c r="N5" t="n">
-        <v>81.44825530997572</v>
+        <v>81.27344184252489</v>
       </c>
       <c r="O5" t="n">
-        <v>9.024868714279211</v>
+        <v>9.015178414347933</v>
       </c>
       <c r="P5" t="n">
-        <v>336.3914776641773</v>
+        <v>336.493551646032</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20283,28 +20405,28 @@
         <v>0.1518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07404073694978244</v>
+        <v>0.05682293699898085</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00349703044948857</v>
+        <v>0.002063959107979629</v>
       </c>
       <c r="M6" t="n">
-        <v>7.096551693292857</v>
+        <v>7.134931133744844</v>
       </c>
       <c r="N6" t="n">
-        <v>82.95248303469604</v>
+        <v>83.52204660155535</v>
       </c>
       <c r="O6" t="n">
-        <v>9.107825373528856</v>
+        <v>9.139039697996466</v>
       </c>
       <c r="P6" t="n">
-        <v>345.1363419433017</v>
+        <v>345.3112760962346</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20361,28 +20483,28 @@
         <v>0.1765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1116405077234502</v>
+        <v>0.1034056912387165</v>
       </c>
       <c r="J7" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008931727393727829</v>
+        <v>0.007747385774698246</v>
       </c>
       <c r="M7" t="n">
-        <v>6.637591281466293</v>
+        <v>6.633632016107299</v>
       </c>
       <c r="N7" t="n">
-        <v>74.93805915714739</v>
+        <v>74.74787394407414</v>
       </c>
       <c r="O7" t="n">
-        <v>8.656677142942746</v>
+        <v>8.645685279032204</v>
       </c>
       <c r="P7" t="n">
-        <v>348.924870764613</v>
+        <v>349.0074467454759</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20439,28 +20561,28 @@
         <v>0.1785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1221474244130178</v>
+        <v>0.108609751680156</v>
       </c>
       <c r="J8" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008500572701225062</v>
+        <v>0.006770104536381383</v>
       </c>
       <c r="M8" t="n">
-        <v>7.671524096574658</v>
+        <v>7.694452923655965</v>
       </c>
       <c r="N8" t="n">
-        <v>94.47218773036079</v>
+        <v>94.59540640220516</v>
       </c>
       <c r="O8" t="n">
-        <v>9.719680433551341</v>
+        <v>9.726016985498491</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2868441467589</v>
+        <v>350.423163018635</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20517,28 +20639,28 @@
         <v>0.1974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.12821853880132</v>
+        <v>0.1110617156623237</v>
       </c>
       <c r="J9" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007870663975975023</v>
+        <v>0.005925543656813748</v>
       </c>
       <c r="M9" t="n">
-        <v>8.287719547206157</v>
+        <v>8.322065606982671</v>
       </c>
       <c r="N9" t="n">
-        <v>112.6442325727422</v>
+        <v>113.2053478237298</v>
       </c>
       <c r="O9" t="n">
-        <v>10.61339872862328</v>
+        <v>10.63980017781019</v>
       </c>
       <c r="P9" t="n">
-        <v>348.8260851436886</v>
+        <v>348.9997877542983</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20595,28 +20717,28 @@
         <v>0.1737</v>
       </c>
       <c r="I10" t="n">
-        <v>0.168698793367196</v>
+        <v>0.1557698168945295</v>
       </c>
       <c r="J10" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01327254955888491</v>
+        <v>0.01141265945168812</v>
       </c>
       <c r="M10" t="n">
-        <v>8.377421460411046</v>
+        <v>8.393421305863081</v>
       </c>
       <c r="N10" t="n">
-        <v>114.5950824547142</v>
+        <v>114.5651511880803</v>
       </c>
       <c r="O10" t="n">
-        <v>10.70490926886885</v>
+        <v>10.70351116167402</v>
       </c>
       <c r="P10" t="n">
-        <v>339.8326649301209</v>
+        <v>339.9643010811569</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20673,28 +20795,28 @@
         <v>0.1618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1529019618841742</v>
+        <v>0.1311506671362342</v>
       </c>
       <c r="J11" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K11" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009151964862540218</v>
+        <v>0.00673778371292777</v>
       </c>
       <c r="M11" t="n">
-        <v>9.26861000394495</v>
+        <v>9.322720202861511</v>
       </c>
       <c r="N11" t="n">
-        <v>136.7026132409208</v>
+        <v>137.8306416910933</v>
       </c>
       <c r="O11" t="n">
-        <v>11.69198927646278</v>
+        <v>11.74012954319897</v>
       </c>
       <c r="P11" t="n">
-        <v>335.3981391947679</v>
+        <v>335.6199270166825</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20751,28 +20873,28 @@
         <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.223931935099356</v>
+        <v>0.2004961447300232</v>
       </c>
       <c r="J12" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K12" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01664473553738099</v>
+        <v>0.01337333017085418</v>
       </c>
       <c r="M12" t="n">
-        <v>9.802518207486425</v>
+        <v>9.856963691511563</v>
       </c>
       <c r="N12" t="n">
-        <v>157.30063695341</v>
+        <v>158.5122269537956</v>
       </c>
       <c r="O12" t="n">
-        <v>12.54195506902373</v>
+        <v>12.5901638970188</v>
       </c>
       <c r="P12" t="n">
-        <v>333.6111410948535</v>
+        <v>333.8523499830433</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20829,28 +20951,28 @@
         <v>0.1578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2566009019775289</v>
+        <v>0.2365470131255621</v>
       </c>
       <c r="J13" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K13" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0247220930995955</v>
+        <v>0.02112164126366467</v>
       </c>
       <c r="M13" t="n">
-        <v>9.267433006754166</v>
+        <v>9.302392672503901</v>
       </c>
       <c r="N13" t="n">
-        <v>139.5466262795112</v>
+        <v>140.2581993007441</v>
       </c>
       <c r="O13" t="n">
-        <v>11.81298549391775</v>
+        <v>11.84306545201639</v>
       </c>
       <c r="P13" t="n">
-        <v>337.2174008876185</v>
+        <v>337.4215713828077</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20907,28 +21029,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2817113486427916</v>
+        <v>0.2477122611934103</v>
       </c>
       <c r="J14" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03019321589611124</v>
+        <v>0.02306059088114853</v>
       </c>
       <c r="M14" t="n">
-        <v>9.088942295639868</v>
+        <v>9.224788047774295</v>
       </c>
       <c r="N14" t="n">
-        <v>136.8280338835071</v>
+        <v>140.4959632954698</v>
       </c>
       <c r="O14" t="n">
-        <v>11.69735157561348</v>
+        <v>11.85309931180321</v>
       </c>
       <c r="P14" t="n">
-        <v>333.9435592996335</v>
+        <v>334.2899308958401</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20966,7 +21088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O327"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44713,6 +44835,160 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-36.69365067816829,175.6039699435809</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-36.69436691839969,175.60415093511213</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-36.69507517763939,175.60448855665885</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-36.69577175877332,175.6048414757646</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-36.69642482135323,175.60525556198786</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-36.69700607635736,175.60582007576113</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-36.69761156832745,175.60632873321737</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-36.69820362967299,175.60687494233972</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-36.69876190280314,175.6074780048566</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-36.6993513506531,175.60803106004386</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-36.69981798174407,175.608736560141</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-36.700264325327275,175.60950821255707</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-36.70070208779974,175.61028942333414</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-36.69363897440234,175.6040603546255</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-36.69435948039842,175.60419928301042</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-36.695076878448006,175.60448243232992</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-36.69575649976584,175.6048789042018</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-36.69641044371014,175.60528661077575</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-36.69698069465388,175.60586794866947</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-36.697610755395154,175.60633007370492</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-36.69823463348219,175.60683390247596</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-36.69874819548565,175.60749359633408</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-36.69931197190311,175.6080747244762</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-36.69984172352503,175.6087122012974</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-36.700250045556395,175.60951913325434</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-36.700694331267286,175.610293952806</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0152/nzd0152.xlsx
+++ b/data/nzd0152/nzd0152.xlsx
@@ -20084,13 +20084,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1231</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.05457070925686842</v>
@@ -20162,13 +20162,13 @@
         <v>0.08342954070695016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1241</v>
+        <v>0.1459</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1846</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.08134063857566844</v>
@@ -20240,13 +20240,13 @@
         <v>0.1662992943028631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.094</v>
+        <v>0.1752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1281</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.1657390615983471</v>
@@ -20318,13 +20318,13 @@
         <v>0.249728835009501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1031</v>
+        <v>0.1242</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1499</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.2097838592993539</v>
@@ -20396,13 +20396,13 @@
         <v>0.3330417565410443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1115</v>
+        <v>0.0954</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1518</v>
+        <v>0.1704</v>
       </c>
       <c r="I6" t="n">
         <v>0.05685018248474519</v>
@@ -20474,13 +20474,13 @@
         <v>0.4164712972479624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1238</v>
+        <v>0.111</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1765</v>
+        <v>0.192</v>
       </c>
       <c r="I7" t="n">
         <v>0.1033830435402275</v>
@@ -20552,13 +20552,13 @@
         <v>0.4998705959841602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1262</v>
+        <v>0.1265</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1785</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.1086395248948235</v>
@@ -20630,13 +20630,13 @@
         <v>0.5829655947500397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.124</v>
+        <v>0.1197</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1974</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.1110931678766901</v>
@@ -20708,13 +20708,13 @@
         <v>0.6663951354569216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.135</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1102</v>
+        <v>0.1346</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1737</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.1557791031137344</v>
@@ -20786,13 +20786,13 @@
         <v>0.7498246593616215</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1026</v>
+        <v>0.1053</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1618</v>
+        <v>0.1989</v>
       </c>
       <c r="I11" t="n">
         <v>0.131150667136234</v>
@@ -20864,13 +20864,13 @@
         <v>0.83320192911174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>0.165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1091</v>
+        <v>0.1012</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1602</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.2005162541020658</v>
@@ -20945,10 +20945,10 @@
         <v>0.13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1113</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1578</v>
+        <v>0.1801</v>
       </c>
       <c r="I13" t="n">
         <v>0.2365666954672512</v>
@@ -21020,10 +21020,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1371</v>
+        <v>0.1628</v>
       </c>
       <c r="H14" t="n">
         <v>0.2</v>
